--- a/flash_cards/math/2/flash_data.xlsx
+++ b/flash_cards/math/2/flash_data.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve">Функция в Rn, i-ая координата функции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Предел  функции по Коши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Предел  функции по Гейне</t>
+    <t xml:space="preserve">Определение: Функция в Rn, i-ая координата функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Предел функции по Коши</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Предел функции по Гейне</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема о покоординатной сходимости функции</t>
   </si>
   <si>
-    <t xml:space="preserve">Функуия непрерывная в точке</t>
+    <t xml:space="preserve">Определение: Функция непрерывная в точке</t>
   </si>
   <si>
     <t xml:space="preserve">Замечание: Комбинациии непрерывных функций</t>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">Теорема о непрерывности композиции</t>
   </si>
   <si>
-    <t xml:space="preserve">Функуия непрерывная на множестве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытое множество</t>
+    <t xml:space="preserve">Определение: Функция непрерывная на множестве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Открытое множество</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема: Критерий непрерывности</t>
@@ -58,19 +58,19 @@
     <t xml:space="preserve">Теорема Вейерштрасса (для функции непрерывной на компакте)</t>
   </si>
   <si>
-    <t xml:space="preserve">Равномерно непрепывная функция</t>
+    <t xml:space="preserve">Определение: Равномерно непрерывная функция</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема Кантора для функции непрерывной на компакте</t>
   </si>
   <si>
-    <t xml:space="preserve">Несвязное множество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий несвязности множества</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий связности (I промежуток)</t>
+    <t xml:space="preserve">Определение: Несвязное множество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий несвязности множества</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий связности (I промежуток)</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема: Свойство функции непрерывной на связном множестве</t>
@@ -79,10 +79,10 @@
     <t xml:space="preserve">Теорема о промежуточных значениях</t>
   </si>
   <si>
-    <t xml:space="preserve">Область</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейно связное множество</t>
+    <t xml:space="preserve">Определение: Область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Линейно связное множество</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма: Свзяность линейно связного множества</t>
@@ -107,16 +107,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,12 +171,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -186,13 +189,13 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
